--- a/Experimentos/teste_geral/Dataset9/statistic_best_per_experiment_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset9/statistic_best_per_experiment_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9749AED-91B5-4A0B-9DFD-25097B32D629}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0D7DDA-4E07-4109-833B-3F5A6EE33031}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-19320" yWindow="-5595" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_best_per_experiment_f" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>Tournament(4)</t>
   </si>
   <si>
@@ -84,11 +78,17 @@
   <si>
     <t>PUZZLE 9 - BEST PER EXPERIMENT</t>
   </si>
+  <si>
+    <t>Scramble</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,19 +638,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
-  <autoFilter ref="A2:J258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
+  <autoFilter ref="A2:J258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J258">
+    <sortCondition ref="I2:I258"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Fitness:"/>
-    <tableColumn id="10" name="Tempo:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fitness:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tempo:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1001,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1021,13 +1024,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>4000</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1036,45 +1039,45 @@
         <v>0.7</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>2884</v>
+        <v>2304</v>
       </c>
       <c r="J3">
-        <v>27143</v>
+        <v>54944</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>4000</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0.4</v>
       </c>
       <c r="I4">
-        <v>2972</v>
+        <v>2338</v>
       </c>
       <c r="J4">
-        <v>29173</v>
+        <v>55924</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,10 +1088,10 @@
         <v>4000</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -1100,15 +1103,15 @@
         <v>0.2</v>
       </c>
       <c r="I5">
-        <v>2380</v>
+        <v>2342</v>
       </c>
       <c r="J5">
-        <v>26926</v>
+        <v>30053</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B6">
         <v>4000</v>
@@ -1117,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1129,39 +1132,39 @@
         <v>0.4</v>
       </c>
       <c r="I6">
-        <v>2414</v>
+        <v>2344</v>
       </c>
       <c r="J6">
-        <v>27195</v>
+        <v>60226</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>4000</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0.7</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
       <c r="I7">
-        <v>2768</v>
+        <v>2350</v>
       </c>
       <c r="J7">
-        <v>27717</v>
+        <v>60686</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1172,54 +1175,54 @@
         <v>4000</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.4</v>
       </c>
       <c r="I8">
-        <v>3960</v>
+        <v>2356</v>
       </c>
       <c r="J8">
-        <v>31102</v>
+        <v>27145</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B9">
         <v>4000</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0.7</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I9">
-        <v>2926</v>
+        <v>2358</v>
       </c>
       <c r="J9">
-        <v>28503</v>
+        <v>53643</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1230,25 +1233,25 @@
         <v>4000</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>0.4</v>
       </c>
       <c r="I10">
-        <v>4026</v>
+        <v>2362</v>
       </c>
       <c r="J10">
-        <v>30942</v>
+        <v>29867</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1259,25 +1262,25 @@
         <v>4000</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0.2</v>
       </c>
       <c r="I11">
-        <v>2856</v>
+        <v>2366</v>
       </c>
       <c r="J11">
-        <v>27135</v>
+        <v>26988</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1288,25 +1291,25 @@
         <v>4000</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0.8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0.4</v>
       </c>
       <c r="I12">
-        <v>3478</v>
+        <v>2366</v>
       </c>
       <c r="J12">
-        <v>31450</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1317,10 +1320,10 @@
         <v>4000</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0.8</v>
@@ -1332,10 +1335,10 @@
         <v>0.2</v>
       </c>
       <c r="I13">
-        <v>2416</v>
+        <v>2368</v>
       </c>
       <c r="J13">
-        <v>27292</v>
+        <v>30329</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1346,10 +1349,10 @@
         <v>4000</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0.8</v>
@@ -1361,15 +1364,15 @@
         <v>0.4</v>
       </c>
       <c r="I14">
-        <v>2406</v>
+        <v>2370</v>
       </c>
       <c r="J14">
-        <v>27207</v>
+        <v>30481</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B15">
         <v>4000</v>
@@ -1378,22 +1381,22 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>0.2</v>
       </c>
       <c r="I15">
-        <v>2796</v>
+        <v>2370</v>
       </c>
       <c r="J15">
-        <v>27676</v>
+        <v>59759</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1404,36 +1407,36 @@
         <v>4000</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0.4</v>
       </c>
       <c r="I16">
-        <v>3948</v>
+        <v>2372</v>
       </c>
       <c r="J16">
-        <v>31534</v>
+        <v>27010</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1442,45 +1445,45 @@
         <v>0.8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>2926</v>
+        <v>2376</v>
       </c>
       <c r="J17">
-        <v>28222</v>
+        <v>54774</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B18">
         <v>4000</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0.8</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>0.4</v>
       </c>
       <c r="I18">
-        <v>3926</v>
+        <v>2376</v>
       </c>
       <c r="J18">
-        <v>31335</v>
+        <v>61172</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,36 +1494,36 @@
         <v>4000</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>0.2</v>
       </c>
       <c r="I19">
-        <v>3034</v>
+        <v>2378</v>
       </c>
       <c r="J19">
-        <v>26891</v>
+        <v>27316</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B20">
         <v>4000</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1529,16 +1532,16 @@
         <v>0.7</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I20">
-        <v>2966</v>
+        <v>2378</v>
       </c>
       <c r="J20">
-        <v>26770</v>
+        <v>54089</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1549,7 +1552,7 @@
         <v>4000</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1564,24 +1567,24 @@
         <v>0.2</v>
       </c>
       <c r="I21">
-        <v>2366</v>
+        <v>2380</v>
       </c>
       <c r="J21">
-        <v>26988</v>
+        <v>26926</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B22">
         <v>4000</v>
       </c>
       <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
       </c>
       <c r="E22">
         <v>0.7</v>
@@ -1593,10 +1596,10 @@
         <v>0.4</v>
       </c>
       <c r="I22">
-        <v>2402</v>
+        <v>2380</v>
       </c>
       <c r="J22">
-        <v>27232</v>
+        <v>79209</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1607,141 +1610,141 @@
         <v>4000</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>3374</v>
+        <v>2382</v>
       </c>
       <c r="J23">
-        <v>26946</v>
+        <v>27936</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B24">
         <v>4000</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24">
-        <v>2996</v>
+        <v>2382</v>
       </c>
       <c r="J24">
-        <v>28073</v>
+        <v>54424</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B25">
         <v>4000</v>
       </c>
       <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
       <c r="E25">
         <v>0.7</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I25">
-        <v>3538</v>
+        <v>2382</v>
       </c>
       <c r="J25">
-        <v>26978</v>
+        <v>60414</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B26">
         <v>4000</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I26">
-        <v>3106</v>
+        <v>2386</v>
       </c>
       <c r="J26">
-        <v>28779</v>
+        <v>55940</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B27">
         <v>4000</v>
       </c>
       <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
       <c r="E27">
         <v>0.8</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>2998</v>
+        <v>2386</v>
       </c>
       <c r="J27">
-        <v>27638</v>
+        <v>59594</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1752,54 +1755,54 @@
         <v>4000</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I28">
-        <v>2972</v>
+        <v>2388</v>
       </c>
       <c r="J28">
-        <v>27651</v>
+        <v>26531</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B29">
         <v>4000</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I29">
-        <v>2378</v>
+        <v>2392</v>
       </c>
       <c r="J29">
-        <v>27316</v>
+        <v>55565</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,10 +1813,10 @@
         <v>4000</v>
       </c>
       <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
         <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
       </c>
       <c r="E30">
         <v>0.8</v>
@@ -1825,10 +1828,10 @@
         <v>0.4</v>
       </c>
       <c r="I30">
-        <v>2356</v>
+        <v>2392</v>
       </c>
       <c r="J30">
-        <v>27145</v>
+        <v>30462</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1839,25 +1842,25 @@
         <v>4000</v>
       </c>
       <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
       <c r="E31">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
-        <v>3248</v>
+        <v>2398</v>
       </c>
       <c r="J31">
-        <v>27029</v>
+        <v>29718</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1868,25 +1871,25 @@
         <v>4000</v>
       </c>
       <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
       <c r="E32">
         <v>0.8</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I32">
-        <v>2916</v>
+        <v>2398</v>
       </c>
       <c r="J32">
-        <v>28610</v>
+        <v>30112</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1897,54 +1900,54 @@
         <v>4000</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I33">
-        <v>3470</v>
+        <v>2402</v>
       </c>
       <c r="J33">
-        <v>29105</v>
+        <v>27232</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B34">
         <v>4000</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>0.8</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>0.4</v>
       </c>
       <c r="I34">
-        <v>3064</v>
+        <v>2402</v>
       </c>
       <c r="J34">
-        <v>29392</v>
+        <v>53605</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1955,30 +1958,30 @@
         <v>4000</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>0.2</v>
       </c>
       <c r="I35">
-        <v>2720</v>
+        <v>2402</v>
       </c>
       <c r="J35">
-        <v>56612</v>
+        <v>61729</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>4000</v>
@@ -1990,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>0.4</v>
       </c>
       <c r="I36">
-        <v>3586</v>
+        <v>2406</v>
       </c>
       <c r="J36">
-        <v>63209</v>
+        <v>27207</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2036,7 +2039,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>4000</v>
@@ -2057,15 +2060,15 @@
         <v>0.4</v>
       </c>
       <c r="I38">
-        <v>2392</v>
+        <v>2414</v>
       </c>
       <c r="J38">
-        <v>55565</v>
+        <v>27195</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>4000</v>
@@ -2077,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="E39">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>0.2</v>
       </c>
       <c r="I39">
-        <v>2668</v>
+        <v>2416</v>
       </c>
       <c r="J39">
-        <v>58893</v>
+        <v>27292</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2106,24 +2109,24 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40">
         <v>0.4</v>
       </c>
       <c r="I40">
-        <v>3898</v>
+        <v>2418</v>
       </c>
       <c r="J40">
-        <v>63808</v>
+        <v>56013</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B41">
         <v>4000</v>
@@ -2132,22 +2135,22 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>0.7</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <v>0.2</v>
       </c>
       <c r="I41">
-        <v>2722</v>
+        <v>2420</v>
       </c>
       <c r="J41">
-        <v>59276</v>
+        <v>29598</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2158,54 +2161,54 @@
         <v>4000</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>0.7</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
-        <v>4004</v>
+        <v>2420</v>
       </c>
       <c r="J42">
-        <v>63060</v>
+        <v>51568</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>4000</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>0.2</v>
       </c>
       <c r="I43">
-        <v>2702</v>
+        <v>2422</v>
       </c>
       <c r="J43">
-        <v>58157</v>
+        <v>25665</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2216,68 +2219,68 @@
         <v>4000</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I44">
-        <v>3754</v>
+        <v>2430</v>
       </c>
       <c r="J44">
-        <v>63698</v>
+        <v>52651</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>4000</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="G45">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I45">
-        <v>2386</v>
+        <v>2444</v>
       </c>
       <c r="J45">
-        <v>55940</v>
+        <v>25528</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>4000</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>0.8</v>
@@ -2286,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="G46">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I46">
-        <v>2418</v>
+        <v>2502</v>
       </c>
       <c r="J46">
-        <v>56013</v>
+        <v>25651</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2303,25 +2306,25 @@
         <v>4000</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47">
         <v>0.2</v>
       </c>
       <c r="I47">
-        <v>2612</v>
+        <v>2502</v>
       </c>
       <c r="J47">
-        <v>60081</v>
+        <v>49818</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2332,25 +2335,25 @@
         <v>4000</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>0.4</v>
       </c>
       <c r="I48">
-        <v>3952</v>
+        <v>2518</v>
       </c>
       <c r="J48">
-        <v>63216</v>
+        <v>51509</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2364,22 +2367,22 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G49">
         <v>0.2</v>
       </c>
       <c r="I49">
-        <v>2704</v>
+        <v>2640</v>
       </c>
       <c r="J49">
-        <v>59420</v>
+        <v>82868</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2399,16 +2402,16 @@
         <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G50">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I50">
-        <v>4012</v>
+        <v>2674</v>
       </c>
       <c r="J50">
-        <v>62793</v>
+        <v>69537</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2419,25 +2422,25 @@
         <v>4000</v>
       </c>
       <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
         <v>13</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
       <c r="E51">
         <v>0.7</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G51">
         <v>0.2</v>
       </c>
       <c r="I51">
-        <v>2962</v>
+        <v>2696</v>
       </c>
       <c r="J51">
-        <v>53722</v>
+        <v>73740</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2448,25 +2451,25 @@
         <v>4000</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
       <c r="G52">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I52">
-        <v>2930</v>
+        <v>2702</v>
       </c>
       <c r="J52">
-        <v>54676</v>
+        <v>58157</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2477,25 +2480,25 @@
         <v>4000</v>
       </c>
       <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
       <c r="E53">
         <v>0.7</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>2378</v>
+        <v>2714</v>
       </c>
       <c r="J53">
-        <v>54089</v>
+        <v>63593</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2506,7 +2509,7 @@
         <v>4000</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -2515,16 +2518,16 @@
         <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
-        <v>2304</v>
+        <v>2720</v>
       </c>
       <c r="J54">
-        <v>54944</v>
+        <v>56612</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2535,25 +2538,25 @@
         <v>4000</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>0.2</v>
       </c>
       <c r="I55">
-        <v>3252</v>
+        <v>2722</v>
       </c>
       <c r="J55">
-        <v>54479</v>
+        <v>58341</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,7 +2567,7 @@
         <v>4000</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -2573,16 +2576,16 @@
         <v>0.7</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
-        <v>2838</v>
+        <v>2754</v>
       </c>
       <c r="J56">
-        <v>57394</v>
+        <v>67746</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2593,7 +2596,7 @@
         <v>4000</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
@@ -2602,45 +2605,45 @@
         <v>0.7</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G57">
         <v>0.2</v>
       </c>
       <c r="I57">
-        <v>3320</v>
+        <v>2760</v>
       </c>
       <c r="J57">
-        <v>55938</v>
+        <v>68580</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>4000</v>
       </c>
       <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
       <c r="E58">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G58">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I58">
-        <v>3036</v>
+        <v>2782</v>
       </c>
       <c r="J58">
-        <v>58305</v>
+        <v>39124</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2651,25 +2654,25 @@
         <v>4000</v>
       </c>
       <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
       <c r="E59">
         <v>0.8</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G59">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I59">
-        <v>2940</v>
+        <v>2788</v>
       </c>
       <c r="J59">
-        <v>54036</v>
+        <v>72642</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2680,25 +2683,25 @@
         <v>4000</v>
       </c>
       <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
         <v>13</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
       <c r="E60">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G60">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I60">
-        <v>2892</v>
+        <v>2792</v>
       </c>
       <c r="J60">
-        <v>55461</v>
+        <v>60204</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2709,25 +2712,25 @@
         <v>4000</v>
       </c>
       <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
         <v>13</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
       <c r="E61">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I61">
-        <v>2376</v>
+        <v>2800</v>
       </c>
       <c r="J61">
-        <v>54774</v>
+        <v>76240</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2738,25 +2741,25 @@
         <v>4000</v>
       </c>
       <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
         <v>13</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
       <c r="E62">
         <v>0.8</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G62">
         <v>0.4</v>
       </c>
       <c r="I62">
-        <v>2338</v>
+        <v>2818</v>
       </c>
       <c r="J62">
-        <v>55924</v>
+        <v>70159</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2767,25 +2770,25 @@
         <v>4000</v>
       </c>
       <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
       <c r="E63">
         <v>0.8</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <v>0.2</v>
       </c>
       <c r="I63">
-        <v>3152</v>
+        <v>2826</v>
       </c>
       <c r="J63">
-        <v>55162</v>
+        <v>62980</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2796,7 +2799,7 @@
         <v>4000</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -2805,27 +2808,27 @@
         <v>0.8</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G64">
         <v>0.4</v>
       </c>
       <c r="I64">
-        <v>2780</v>
+        <v>2830</v>
       </c>
       <c r="J64">
-        <v>58028</v>
+        <v>64250</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>4000</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -2834,16 +2837,16 @@
         <v>0.8</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G65">
         <v>0.2</v>
       </c>
       <c r="I65">
-        <v>3280</v>
+        <v>2834</v>
       </c>
       <c r="J65">
-        <v>55313</v>
+        <v>34738</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2854,25 +2857,25 @@
         <v>4000</v>
       </c>
       <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
       <c r="E66">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>0.4</v>
       </c>
       <c r="I66">
-        <v>2944</v>
+        <v>2834</v>
       </c>
       <c r="J66">
-        <v>58375</v>
+        <v>64616</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2886,22 +2889,22 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G67">
         <v>0.2</v>
       </c>
       <c r="I67">
-        <v>3966</v>
+        <v>2836</v>
       </c>
       <c r="J67">
-        <v>29773</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,22 +2918,22 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G68">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I68">
-        <v>3980</v>
+        <v>2836</v>
       </c>
       <c r="J68">
-        <v>29837</v>
+        <v>35211</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2944,22 +2947,22 @@
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69">
         <v>0.2</v>
       </c>
       <c r="I69">
-        <v>3932</v>
+        <v>2854</v>
       </c>
       <c r="J69">
-        <v>29608</v>
+        <v>39637</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2970,25 +2973,25 @@
         <v>4000</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G70">
         <v>0.4</v>
       </c>
       <c r="I70">
-        <v>3968</v>
+        <v>2854</v>
       </c>
       <c r="J70">
-        <v>29633</v>
+        <v>36955</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3002,22 +3005,22 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <v>0.2</v>
       </c>
       <c r="I71">
-        <v>4004</v>
+        <v>2856</v>
       </c>
       <c r="J71">
-        <v>29725</v>
+        <v>27135</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3031,22 +3034,22 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72">
         <v>0.7</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G72">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I72">
-        <v>4002</v>
+        <v>2856</v>
       </c>
       <c r="J72">
-        <v>29855</v>
+        <v>38136</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3057,36 +3060,36 @@
         <v>4000</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73">
         <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G73">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I73">
-        <v>3994</v>
+        <v>2858</v>
       </c>
       <c r="J73">
-        <v>29768</v>
+        <v>35762</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B74">
         <v>4000</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3095,74 +3098,74 @@
         <v>0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
-        <v>4048</v>
+        <v>2858</v>
       </c>
       <c r="J74">
-        <v>29796</v>
+        <v>53508</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B75">
         <v>4000</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G75">
         <v>0.2</v>
       </c>
       <c r="I75">
-        <v>3886</v>
+        <v>2860</v>
       </c>
       <c r="J75">
-        <v>30078</v>
+        <v>51928</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B76">
         <v>4000</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E76">
         <v>0.8</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G76">
         <v>0.4</v>
       </c>
       <c r="I76">
-        <v>4002</v>
+        <v>2866</v>
       </c>
       <c r="J76">
-        <v>29819</v>
+        <v>64677</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3173,30 +3176,30 @@
         <v>4000</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G77">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I77">
-        <v>3998</v>
+        <v>2868</v>
       </c>
       <c r="J77">
-        <v>29862</v>
+        <v>36649</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B78">
         <v>4000</v>
@@ -3205,27 +3208,27 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78">
         <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78">
         <v>0.4</v>
       </c>
       <c r="I78">
-        <v>3998</v>
+        <v>2872</v>
       </c>
       <c r="J78">
-        <v>29888</v>
+        <v>67239</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B79">
         <v>4000</v>
@@ -3234,22 +3237,22 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G79">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I79">
-        <v>4018</v>
+        <v>2874</v>
       </c>
       <c r="J79">
-        <v>29938</v>
+        <v>61964</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3263,22 +3266,22 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G80">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I80">
-        <v>4012</v>
+        <v>2874</v>
       </c>
       <c r="J80">
-        <v>30035</v>
+        <v>34626</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3292,27 +3295,27 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G81">
         <v>0.2</v>
       </c>
       <c r="I81">
-        <v>3976</v>
+        <v>2884</v>
       </c>
       <c r="J81">
-        <v>29959</v>
+        <v>27143</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B82">
         <v>4000</v>
@@ -3321,109 +3324,109 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G82">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I82">
-        <v>4038</v>
+        <v>2884</v>
       </c>
       <c r="J82">
-        <v>30004</v>
+        <v>66781</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B83">
         <v>4000</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
       </c>
       <c r="G83">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I83">
-        <v>3158</v>
+        <v>2892</v>
       </c>
       <c r="J83">
-        <v>25782</v>
+        <v>55461</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B84">
         <v>4000</v>
       </c>
       <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
         <v>13</v>
       </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
       <c r="E84">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G84">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I84">
-        <v>3142</v>
+        <v>2892</v>
       </c>
       <c r="J84">
-        <v>26357</v>
+        <v>68470</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>4000</v>
       </c>
       <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
         <v>13</v>
       </c>
-      <c r="D85" t="s">
-        <v>14</v>
-      </c>
       <c r="E85">
         <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85">
         <v>0.2</v>
       </c>
       <c r="I85">
-        <v>2388</v>
+        <v>2894</v>
       </c>
       <c r="J85">
-        <v>26531</v>
+        <v>63582</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3434,54 +3437,54 @@
         <v>4000</v>
       </c>
       <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
         <v>13</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
       <c r="E86">
         <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I86">
-        <v>2372</v>
+        <v>2898</v>
       </c>
       <c r="J86">
-        <v>27010</v>
+        <v>38957</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B87">
         <v>4000</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E87">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G87">
         <v>0.2</v>
       </c>
       <c r="I87">
-        <v>3584</v>
+        <v>2906</v>
       </c>
       <c r="J87">
-        <v>26330</v>
+        <v>62606</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3492,7 +3495,7 @@
         <v>4000</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -3501,16 +3504,16 @@
         <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G88">
         <v>0.4</v>
       </c>
       <c r="I88">
-        <v>3486</v>
+        <v>2908</v>
       </c>
       <c r="J88">
-        <v>27760</v>
+        <v>34352</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3521,7 +3524,7 @@
         <v>4000</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -3530,45 +3533,45 @@
         <v>0.7</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I89">
-        <v>3796</v>
+        <v>2908</v>
       </c>
       <c r="J89">
-        <v>26867</v>
+        <v>28993</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B90">
         <v>4000</v>
       </c>
       <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
         <v>13</v>
       </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
       <c r="E90">
         <v>0.7</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G90">
         <v>0.4</v>
       </c>
       <c r="I90">
-        <v>3514</v>
+        <v>2910</v>
       </c>
       <c r="J90">
-        <v>28287</v>
+        <v>68359</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3579,199 +3582,199 @@
         <v>4000</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
       <c r="E91">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G91">
         <v>0.2</v>
       </c>
       <c r="I91">
-        <v>3158</v>
+        <v>2912</v>
       </c>
       <c r="J91">
-        <v>25222</v>
+        <v>26782</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B92">
         <v>4000</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
       </c>
       <c r="G92">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I92">
-        <v>3060</v>
+        <v>2914</v>
       </c>
       <c r="J92">
-        <v>27004</v>
+        <v>51383</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B93">
         <v>4000</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G93">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I93">
-        <v>2382</v>
+        <v>2914</v>
       </c>
       <c r="J93">
-        <v>27936</v>
+        <v>59441</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B94">
         <v>4000</v>
       </c>
       <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
         <v>13</v>
       </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
       <c r="E94">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
-        <v>2366</v>
+        <v>2914</v>
       </c>
       <c r="J94">
-        <v>26400</v>
+        <v>61758</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B95">
         <v>4000</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I95">
-        <v>3624</v>
+        <v>2916</v>
       </c>
       <c r="J95">
-        <v>26714</v>
+        <v>56896</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B96">
         <v>4000</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G96">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I96">
-        <v>3512</v>
+        <v>2918</v>
       </c>
       <c r="J96">
-        <v>28170</v>
+        <v>56512</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>4000</v>
       </c>
       <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
         <v>13</v>
       </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
       <c r="E97">
         <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G97">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I97">
-        <v>3794</v>
+        <v>2918</v>
       </c>
       <c r="J97">
-        <v>26320</v>
+        <v>61423</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3782,25 +3785,25 @@
         <v>4000</v>
       </c>
       <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
         <v>13</v>
       </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
       <c r="E98">
         <v>0.8</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G98">
         <v>0.4</v>
       </c>
       <c r="I98">
-        <v>3408</v>
+        <v>2920</v>
       </c>
       <c r="J98">
-        <v>28825</v>
+        <v>37593</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3811,10 +3814,10 @@
         <v>4000</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>0.7</v>
@@ -3823,13 +3826,13 @@
         <v>9</v>
       </c>
       <c r="G99">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I99">
-        <v>3906</v>
+        <v>2930</v>
       </c>
       <c r="J99">
-        <v>76583</v>
+        <v>54676</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3840,10 +3843,10 @@
         <v>4000</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E100">
         <v>0.7</v>
@@ -3855,10 +3858,10 @@
         <v>0.4</v>
       </c>
       <c r="I100">
-        <v>3924</v>
+        <v>2930</v>
       </c>
       <c r="J100">
-        <v>75424</v>
+        <v>60460</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3869,54 +3872,54 @@
         <v>4000</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G101">
         <v>0.2</v>
       </c>
       <c r="I101">
-        <v>3976</v>
+        <v>2930</v>
       </c>
       <c r="J101">
-        <v>59232</v>
+        <v>56975</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>4000</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102">
         <v>0.4</v>
       </c>
       <c r="I102">
-        <v>3980</v>
+        <v>2934</v>
       </c>
       <c r="J102">
-        <v>59335</v>
+        <v>34131</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,22 +3933,22 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G103">
         <v>0.2</v>
       </c>
       <c r="I103">
-        <v>3990</v>
+        <v>2938</v>
       </c>
       <c r="J103">
-        <v>60533</v>
+        <v>60774</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3956,25 +3959,25 @@
         <v>4000</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E104">
         <v>0.7</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G104">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I104">
-        <v>4002</v>
+        <v>2938</v>
       </c>
       <c r="J104">
-        <v>62254</v>
+        <v>53462</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3985,65 +3988,65 @@
         <v>4000</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G105">
         <v>0.2</v>
       </c>
       <c r="I105">
-        <v>3984</v>
+        <v>2940</v>
       </c>
       <c r="J105">
-        <v>60883</v>
+        <v>54036</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>4000</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E106">
         <v>0.7</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G106">
         <v>0.4</v>
       </c>
       <c r="I106">
-        <v>4000</v>
+        <v>2942</v>
       </c>
       <c r="J106">
-        <v>60895</v>
+        <v>34596</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>4000</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -4052,16 +4055,16 @@
         <v>0.8</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G107">
         <v>0.2</v>
       </c>
       <c r="I107">
-        <v>3990</v>
+        <v>2948</v>
       </c>
       <c r="J107">
-        <v>60026</v>
+        <v>31220</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4072,123 +4075,123 @@
         <v>4000</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E108">
         <v>0.8</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G108">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I108">
-        <v>3942</v>
+        <v>2952</v>
       </c>
       <c r="J108">
-        <v>59792</v>
+        <v>60659</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B109">
         <v>4000</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
       </c>
       <c r="E109">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G109">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I109">
-        <v>3996</v>
+        <v>2954</v>
       </c>
       <c r="J109">
-        <v>59802</v>
+        <v>26440</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>4000</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G110">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I110">
-        <v>3952</v>
+        <v>2954</v>
       </c>
       <c r="J110">
-        <v>59831</v>
+        <v>32888</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>4000</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G111">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I111">
-        <v>4044</v>
+        <v>2956</v>
       </c>
       <c r="J111">
-        <v>59954</v>
+        <v>29317</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B112">
         <v>4000</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -4197,16 +4200,16 @@
         <v>0.8</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G112">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I112">
-        <v>4046</v>
+        <v>2956</v>
       </c>
       <c r="J112">
-        <v>60265</v>
+        <v>34451</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4220,27 +4223,27 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G113">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I113">
-        <v>4020</v>
+        <v>2958</v>
       </c>
       <c r="J113">
-        <v>59926</v>
+        <v>60980</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B114">
         <v>4000</v>
@@ -4249,22 +4252,22 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G114">
         <v>0.4</v>
       </c>
       <c r="I114">
-        <v>4040</v>
+        <v>2958</v>
       </c>
       <c r="J114">
-        <v>60219</v>
+        <v>36942</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4275,10 +4278,10 @@
         <v>4000</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>0.7</v>
@@ -4290,227 +4293,227 @@
         <v>0.2</v>
       </c>
       <c r="I115">
-        <v>3132</v>
+        <v>2962</v>
       </c>
       <c r="J115">
-        <v>52442</v>
+        <v>53722</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B116">
         <v>4000</v>
       </c>
       <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
         <v>13</v>
       </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
       <c r="E116">
         <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G116">
         <v>0.4</v>
       </c>
       <c r="I116">
-        <v>3076</v>
+        <v>2964</v>
       </c>
       <c r="J116">
-        <v>52530</v>
+        <v>40475</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B117">
         <v>4000</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>0.7</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G117">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I117">
-        <v>2430</v>
+        <v>2966</v>
       </c>
       <c r="J117">
-        <v>52651</v>
+        <v>26770</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B118">
         <v>4000</v>
       </c>
       <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
         <v>13</v>
       </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
       <c r="E118">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G118">
         <v>0.4</v>
       </c>
       <c r="I118">
-        <v>2358</v>
+        <v>2970</v>
       </c>
       <c r="J118">
-        <v>53643</v>
+        <v>40887</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <v>4000</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>0.7</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G119">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I119">
-        <v>3624</v>
+        <v>2972</v>
       </c>
       <c r="J119">
-        <v>52376</v>
+        <v>29173</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B120">
         <v>4000</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G120">
         <v>0.4</v>
       </c>
       <c r="I120">
-        <v>3398</v>
+        <v>2972</v>
       </c>
       <c r="J120">
-        <v>57205</v>
+        <v>27651</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B121">
         <v>4000</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <v>0.7</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G121">
         <v>0.2</v>
       </c>
       <c r="I121">
-        <v>3648</v>
+        <v>2980</v>
       </c>
       <c r="J121">
-        <v>54390</v>
+        <v>33686</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B122">
         <v>4000</v>
       </c>
       <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
         <v>13</v>
       </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
       <c r="E122">
         <v>0.7</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G122">
         <v>0.4</v>
       </c>
       <c r="I122">
-        <v>3412</v>
+        <v>2986</v>
       </c>
       <c r="J122">
-        <v>56437</v>
+        <v>30447</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B123">
         <v>4000</v>
       </c>
       <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
         <v>13</v>
-      </c>
-      <c r="D123" t="s">
-        <v>14</v>
       </c>
       <c r="E123">
         <v>0.8</v>
@@ -4519,24 +4522,24 @@
         <v>9</v>
       </c>
       <c r="G123">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I123">
-        <v>3114</v>
+        <v>2990</v>
       </c>
       <c r="J123">
-        <v>52780</v>
+        <v>30998</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B124">
         <v>4000</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
@@ -4548,13 +4551,13 @@
         <v>9</v>
       </c>
       <c r="G124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I124">
-        <v>3114</v>
+        <v>2992</v>
       </c>
       <c r="J124">
-        <v>54657</v>
+        <v>25851</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4565,83 +4568,83 @@
         <v>4000</v>
       </c>
       <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
         <v>13</v>
       </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
       <c r="E125">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G125">
         <v>0.2</v>
       </c>
       <c r="I125">
-        <v>2382</v>
+        <v>2996</v>
       </c>
       <c r="J125">
-        <v>54424</v>
+        <v>59341</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>4000</v>
       </c>
       <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
         <v>13</v>
       </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
       <c r="E126">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G126">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I126">
-        <v>2402</v>
+        <v>2996</v>
       </c>
       <c r="J126">
-        <v>53605</v>
+        <v>35117</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B127">
         <v>4000</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E127">
         <v>0.8</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G127">
         <v>0.2</v>
       </c>
       <c r="I127">
-        <v>3630</v>
+        <v>2998</v>
       </c>
       <c r="J127">
-        <v>52723</v>
+        <v>27638</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4652,54 +4655,54 @@
         <v>4000</v>
       </c>
       <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
         <v>13</v>
       </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
       <c r="E128">
         <v>0.8</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G128">
         <v>0.4</v>
       </c>
       <c r="I128">
-        <v>3468</v>
+        <v>3004</v>
       </c>
       <c r="J128">
-        <v>56993</v>
+        <v>65062</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B129">
         <v>4000</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
       </c>
       <c r="E129">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G129">
         <v>0.2</v>
       </c>
       <c r="I129">
-        <v>3672</v>
+        <v>3004</v>
       </c>
       <c r="J129">
-        <v>54081</v>
+        <v>25520</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4710,25 +4713,25 @@
         <v>4000</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E130">
         <v>0.8</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G130">
         <v>0.4</v>
       </c>
       <c r="I130">
-        <v>3438</v>
+        <v>3004</v>
       </c>
       <c r="J130">
-        <v>58225</v>
+        <v>60687</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4739,25 +4742,25 @@
         <v>4000</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E131">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G131">
         <v>0.2</v>
       </c>
       <c r="I131">
-        <v>3052</v>
+        <v>3008</v>
       </c>
       <c r="J131">
-        <v>30165</v>
+        <v>35820</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4768,83 +4771,83 @@
         <v>4000</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>0.7</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G132">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I132">
-        <v>3056</v>
+        <v>3012</v>
       </c>
       <c r="J132">
-        <v>30176</v>
+        <v>28008</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B133">
         <v>4000</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E133">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G133">
         <v>0.2</v>
       </c>
       <c r="I133">
-        <v>2420</v>
+        <v>3012</v>
       </c>
       <c r="J133">
-        <v>29598</v>
+        <v>56706</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B134">
         <v>4000</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I134">
-        <v>2398</v>
+        <v>3014</v>
       </c>
       <c r="J134">
-        <v>29718</v>
+        <v>61409</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4855,25 +4858,25 @@
         <v>4000</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E135">
         <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G135">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I135">
-        <v>2854</v>
+        <v>3014</v>
       </c>
       <c r="J135">
-        <v>30169</v>
+        <v>40666</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4884,25 +4887,25 @@
         <v>4000</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E136">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G136">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I136">
-        <v>3502</v>
+        <v>3020</v>
       </c>
       <c r="J136">
-        <v>31742</v>
+        <v>29702</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4916,22 +4919,22 @@
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G137">
         <v>0.2</v>
       </c>
       <c r="I137">
-        <v>2998</v>
+        <v>3022</v>
       </c>
       <c r="J137">
-        <v>31124</v>
+        <v>30110</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4942,25 +4945,25 @@
         <v>4000</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G138">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I138">
-        <v>3810</v>
+        <v>3030</v>
       </c>
       <c r="J138">
-        <v>30913</v>
+        <v>32571</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4971,13 +4974,13 @@
         <v>4000</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -4986,39 +4989,39 @@
         <v>0.2</v>
       </c>
       <c r="I139">
-        <v>3022</v>
+        <v>3034</v>
       </c>
       <c r="J139">
-        <v>30110</v>
+        <v>26891</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B140">
         <v>4000</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E140">
         <v>0.8</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G140">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I140">
-        <v>2990</v>
+        <v>3034</v>
       </c>
       <c r="J140">
-        <v>30998</v>
+        <v>62161</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5029,54 +5032,54 @@
         <v>4000</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E141">
         <v>0.8</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G141">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I141">
-        <v>2398</v>
+        <v>3036</v>
       </c>
       <c r="J141">
-        <v>30112</v>
+        <v>31338</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B142">
         <v>4000</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E142">
         <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G142">
         <v>0.4</v>
       </c>
       <c r="I142">
-        <v>2392</v>
+        <v>3038</v>
       </c>
       <c r="J142">
-        <v>30462</v>
+        <v>58926</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5087,25 +5090,25 @@
         <v>4000</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G143">
         <v>0.2</v>
       </c>
       <c r="I143">
-        <v>2790</v>
+        <v>3042</v>
       </c>
       <c r="J143">
-        <v>31227</v>
+        <v>31135</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5116,25 +5119,25 @@
         <v>4000</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E144">
         <v>0.8</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G144">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I144">
-        <v>3502</v>
+        <v>3042</v>
       </c>
       <c r="J144">
-        <v>32127</v>
+        <v>36127</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5148,22 +5151,22 @@
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G145">
         <v>0.2</v>
       </c>
       <c r="I145">
-        <v>2962</v>
+        <v>3052</v>
       </c>
       <c r="J145">
-        <v>31458</v>
+        <v>30165</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5174,25 +5177,25 @@
         <v>4000</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <v>0.8</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G146">
         <v>0.4</v>
       </c>
       <c r="I146">
-        <v>3784</v>
+        <v>3052</v>
       </c>
       <c r="J146">
-        <v>31257</v>
+        <v>31540</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5203,25 +5206,25 @@
         <v>4000</v>
       </c>
       <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
         <v>13</v>
       </c>
-      <c r="D147" t="s">
-        <v>15</v>
-      </c>
       <c r="E147">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F147" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G147">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I147">
-        <v>3120</v>
+        <v>3052</v>
       </c>
       <c r="J147">
-        <v>29543</v>
+        <v>41061</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5232,10 +5235,10 @@
         <v>4000</v>
       </c>
       <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
         <v>13</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
       </c>
       <c r="E148">
         <v>0.7</v>
@@ -5247,10 +5250,10 @@
         <v>0.4</v>
       </c>
       <c r="I148">
-        <v>2986</v>
+        <v>3056</v>
       </c>
       <c r="J148">
-        <v>30447</v>
+        <v>30176</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5261,83 +5264,83 @@
         <v>4000</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E149">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G149">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I149">
-        <v>2342</v>
+        <v>3060</v>
       </c>
       <c r="J149">
-        <v>30053</v>
+        <v>27004</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B150">
         <v>4000</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E150">
         <v>0.7</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G150">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I150">
-        <v>2362</v>
+        <v>3060</v>
       </c>
       <c r="J150">
-        <v>29867</v>
+        <v>51849</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B151">
         <v>4000</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E151">
         <v>0.7</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G151">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I151">
-        <v>3454</v>
+        <v>3062</v>
       </c>
       <c r="J151">
-        <v>30376</v>
+        <v>55388</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5348,54 +5351,54 @@
         <v>4000</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E152">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G152">
         <v>0.4</v>
       </c>
       <c r="I152">
-        <v>3052</v>
+        <v>3064</v>
       </c>
       <c r="J152">
-        <v>31023</v>
+        <v>26747</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B153">
         <v>4000</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E153">
         <v>0.7</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G153">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I153">
-        <v>3680</v>
+        <v>3066</v>
       </c>
       <c r="J153">
-        <v>30837</v>
+        <v>56161</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5406,54 +5409,54 @@
         <v>4000</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E154">
         <v>0.7</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G154">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I154">
-        <v>3304</v>
+        <v>3070</v>
       </c>
       <c r="J154">
-        <v>31507</v>
+        <v>28117</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B155">
         <v>4000</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E155">
         <v>0.8</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G155">
         <v>0.2</v>
       </c>
       <c r="I155">
-        <v>3090</v>
+        <v>3072</v>
       </c>
       <c r="J155">
-        <v>31211</v>
+        <v>59141</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5464,10 +5467,10 @@
         <v>4000</v>
       </c>
       <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
         <v>13</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
       </c>
       <c r="E156">
         <v>0.8</v>
@@ -5487,31 +5490,31 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B157">
         <v>4000</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G157">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I157">
-        <v>2368</v>
+        <v>3076</v>
       </c>
       <c r="J157">
-        <v>30329</v>
+        <v>52530</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5522,25 +5525,25 @@
         <v>4000</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G158">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I158">
-        <v>2370</v>
+        <v>3076</v>
       </c>
       <c r="J158">
-        <v>30481</v>
+        <v>33528</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5551,25 +5554,25 @@
         <v>4000</v>
       </c>
       <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
         <v>13</v>
       </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
       <c r="E159">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G159">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I159">
-        <v>3432</v>
+        <v>3078</v>
       </c>
       <c r="J159">
-        <v>32803</v>
+        <v>40221</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5580,100 +5583,100 @@
         <v>4000</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E160">
         <v>0.8</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G160">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I160">
-        <v>2982</v>
+        <v>3082</v>
       </c>
       <c r="J160">
-        <v>32153</v>
+        <v>34538</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>4000</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E161">
         <v>0.8</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G161">
         <v>0.2</v>
       </c>
       <c r="I161">
-        <v>3654</v>
+        <v>3082</v>
       </c>
       <c r="J161">
-        <v>34642</v>
+        <v>57999</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B162">
         <v>4000</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E162">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G162">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I162">
-        <v>3226</v>
+        <v>3086</v>
       </c>
       <c r="J162">
-        <v>36460</v>
+        <v>54409</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B163">
         <v>4000</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E163">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F163" t="s">
         <v>9</v>
@@ -5682,10 +5685,10 @@
         <v>0.2</v>
       </c>
       <c r="I163">
-        <v>2884</v>
+        <v>3090</v>
       </c>
       <c r="J163">
-        <v>66781</v>
+        <v>31211</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5696,83 +5699,83 @@
         <v>4000</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E164">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F164" t="s">
         <v>9</v>
       </c>
       <c r="G164">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I164">
-        <v>2958</v>
+        <v>3104</v>
       </c>
       <c r="J164">
-        <v>60980</v>
+        <v>53278</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B165">
         <v>4000</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E165">
         <v>0.7</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G165">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I165">
-        <v>2370</v>
+        <v>3104</v>
       </c>
       <c r="J165">
-        <v>59759</v>
+        <v>34160</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B166">
         <v>4000</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E166">
         <v>0.7</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G166">
         <v>0.4</v>
       </c>
       <c r="I166">
-        <v>2380</v>
+        <v>3108</v>
       </c>
       <c r="J166">
-        <v>79209</v>
+        <v>28288</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5783,25 +5786,25 @@
         <v>4000</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G167">
         <v>0.2</v>
       </c>
       <c r="I167">
-        <v>2686</v>
+        <v>3114</v>
       </c>
       <c r="J167">
-        <v>61252</v>
+        <v>52780</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5812,83 +5815,83 @@
         <v>4000</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E168">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G168">
         <v>0.4</v>
       </c>
       <c r="I168">
-        <v>3392</v>
+        <v>3114</v>
       </c>
       <c r="J168">
-        <v>64826</v>
+        <v>54657</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B169">
         <v>4000</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G169">
         <v>0.2</v>
       </c>
       <c r="I169">
-        <v>2888</v>
+        <v>3114</v>
       </c>
       <c r="J169">
-        <v>85430</v>
+        <v>31505</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B170">
         <v>4000</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E170">
         <v>0.7</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G170">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I170">
-        <v>3792</v>
+        <v>3120</v>
       </c>
       <c r="J170">
-        <v>62078</v>
+        <v>29543</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5899,13 +5902,13 @@
         <v>4000</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E171">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F171" t="s">
         <v>9</v>
@@ -5914,27 +5917,27 @@
         <v>0.2</v>
       </c>
       <c r="I171">
-        <v>2938</v>
+        <v>3132</v>
       </c>
       <c r="J171">
-        <v>60774</v>
+        <v>52442</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B172">
         <v>4000</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
@@ -5943,73 +5946,73 @@
         <v>0.4</v>
       </c>
       <c r="I172">
-        <v>2874</v>
+        <v>3142</v>
       </c>
       <c r="J172">
-        <v>61964</v>
+        <v>26357</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B173">
         <v>4000</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E173">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G173">
         <v>0.2</v>
       </c>
       <c r="I173">
-        <v>2386</v>
+        <v>3158</v>
       </c>
       <c r="J173">
-        <v>59594</v>
+        <v>25782</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B174">
         <v>4000</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E174">
         <v>0.8</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G174">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I174">
-        <v>2344</v>
+        <v>3158</v>
       </c>
       <c r="J174">
-        <v>60226</v>
+        <v>25222</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B175">
         <v>4000</v>
@@ -6018,27 +6021,27 @@
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G175">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I175">
-        <v>2616</v>
+        <v>3174</v>
       </c>
       <c r="J175">
-        <v>63485</v>
+        <v>37678</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B176">
         <v>4000</v>
@@ -6047,22 +6050,22 @@
         <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E176">
         <v>0.8</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G176">
         <v>0.4</v>
       </c>
       <c r="I176">
-        <v>3446</v>
+        <v>3478</v>
       </c>
       <c r="J176">
-        <v>64101</v>
+        <v>31450</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6073,25 +6076,25 @@
         <v>4000</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E177">
         <v>0.8</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G177">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I177">
-        <v>2846</v>
+        <v>3502</v>
       </c>
       <c r="J177">
-        <v>62637</v>
+        <v>56211</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6102,25 +6105,25 @@
         <v>4000</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G178">
         <v>0.4</v>
       </c>
       <c r="I178">
-        <v>3826</v>
+        <v>3502</v>
       </c>
       <c r="J178">
-        <v>62273</v>
+        <v>58809</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6131,10 +6134,10 @@
         <v>4000</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E179">
         <v>0.7</v>
@@ -6143,13 +6146,13 @@
         <v>9</v>
       </c>
       <c r="G179">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I179">
-        <v>2996</v>
+        <v>3586</v>
       </c>
       <c r="J179">
-        <v>59341</v>
+        <v>63209</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6160,25 +6163,25 @@
         <v>4000</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E180">
         <v>0.7</v>
       </c>
       <c r="F180" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G180">
         <v>0.4</v>
       </c>
       <c r="I180">
-        <v>2930</v>
+        <v>3604</v>
       </c>
       <c r="J180">
-        <v>60460</v>
+        <v>58535</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6189,25 +6192,25 @@
         <v>4000</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E181">
         <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G181">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I181">
-        <v>2350</v>
+        <v>3710</v>
       </c>
       <c r="J181">
-        <v>60686</v>
+        <v>57314</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6218,25 +6221,25 @@
         <v>4000</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E182">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G182">
         <v>0.4</v>
       </c>
       <c r="I182">
-        <v>2382</v>
+        <v>3754</v>
       </c>
       <c r="J182">
-        <v>60414</v>
+        <v>63698</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6247,54 +6250,54 @@
         <v>4000</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E183">
         <v>0.7</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G183">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I183">
-        <v>3370</v>
+        <v>3800</v>
       </c>
       <c r="J183">
-        <v>60923</v>
+        <v>62603</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B184">
         <v>4000</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G184">
         <v>0.4</v>
       </c>
       <c r="I184">
-        <v>2870</v>
+        <v>3826</v>
       </c>
       <c r="J184">
-        <v>63144</v>
+        <v>38494</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6305,54 +6308,54 @@
         <v>4000</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E185">
         <v>0.7</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G185">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I185">
-        <v>3520</v>
+        <v>3838</v>
       </c>
       <c r="J185">
-        <v>61170</v>
+        <v>73112</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B186">
         <v>4000</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E186">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G186">
         <v>0.4</v>
       </c>
       <c r="I186">
-        <v>3122</v>
+        <v>3858</v>
       </c>
       <c r="J186">
-        <v>63090</v>
+        <v>38354</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6363,39 +6366,39 @@
         <v>4000</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E187">
         <v>0.8</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G187">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I187">
-        <v>3014</v>
+        <v>3872</v>
       </c>
       <c r="J187">
-        <v>61409</v>
+        <v>67532</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B188">
         <v>4000</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E188">
         <v>0.8</v>
@@ -6404,42 +6407,42 @@
         <v>9</v>
       </c>
       <c r="G188">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I188">
-        <v>3004</v>
+        <v>3886</v>
       </c>
       <c r="J188">
-        <v>65062</v>
+        <v>30078</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B189">
         <v>4000</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E189">
         <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G189">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I189">
-        <v>2402</v>
+        <v>3890</v>
       </c>
       <c r="J189">
-        <v>61729</v>
+        <v>33783</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6450,54 +6453,54 @@
         <v>4000</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>0.8</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G190">
         <v>0.4</v>
       </c>
       <c r="I190">
-        <v>2376</v>
+        <v>3902</v>
       </c>
       <c r="J190">
-        <v>61172</v>
+        <v>70971</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B191">
         <v>4000</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E191">
         <v>0.8</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G191">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I191">
-        <v>3356</v>
+        <v>3902</v>
       </c>
       <c r="J191">
-        <v>59614</v>
+        <v>36469</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6508,25 +6511,25 @@
         <v>4000</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E192">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G192">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I192">
-        <v>2852</v>
+        <v>3906</v>
       </c>
       <c r="J192">
-        <v>62933</v>
+        <v>76583</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6537,59 +6540,59 @@
         <v>4000</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G193">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I193">
-        <v>3502</v>
+        <v>3924</v>
       </c>
       <c r="J193">
-        <v>61379</v>
+        <v>75424</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B194">
         <v>4000</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G194">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I194">
-        <v>3118</v>
+        <v>3926</v>
       </c>
       <c r="J194">
-        <v>62226</v>
+        <v>36984</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <v>4000</v>
@@ -6598,22 +6601,22 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E195">
         <v>0.7</v>
       </c>
       <c r="F195" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G195">
         <v>0.2</v>
       </c>
       <c r="I195">
-        <v>3936</v>
+        <v>3928</v>
       </c>
       <c r="J195">
-        <v>28642</v>
+        <v>63334</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6627,22 +6630,22 @@
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E196">
         <v>0.7</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G196">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I196">
-        <v>4112</v>
+        <v>3932</v>
       </c>
       <c r="J196">
-        <v>28702</v>
+        <v>29608</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6656,27 +6659,27 @@
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E197">
         <v>0.7</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G197">
         <v>0.2</v>
       </c>
       <c r="I197">
-        <v>4104</v>
+        <v>3936</v>
       </c>
       <c r="J197">
-        <v>28712</v>
+        <v>28642</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B198">
         <v>4000</v>
@@ -6685,27 +6688,27 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G198">
         <v>0.4</v>
       </c>
       <c r="I198">
-        <v>4084</v>
+        <v>3942</v>
       </c>
       <c r="J198">
-        <v>28694</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>4000</v>
@@ -6714,27 +6717,27 @@
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E199">
         <v>0.7</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G199">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I199">
-        <v>4080</v>
+        <v>3942</v>
       </c>
       <c r="J199">
-        <v>28726</v>
+        <v>60251</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>4000</v>
@@ -6743,22 +6746,22 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G200">
         <v>0.4</v>
       </c>
       <c r="I200">
-        <v>4062</v>
+        <v>3952</v>
       </c>
       <c r="J200">
-        <v>28773</v>
+        <v>59831</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6769,25 +6772,25 @@
         <v>4000</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G201">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I201">
-        <v>4066</v>
+        <v>3956</v>
       </c>
       <c r="J201">
-        <v>28708</v>
+        <v>28778</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6801,22 +6804,22 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E202">
         <v>0.7</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G202">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I202">
-        <v>4090</v>
+        <v>3966</v>
       </c>
       <c r="J202">
-        <v>28722</v>
+        <v>29773</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6830,27 +6833,27 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G203">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I203">
-        <v>4100</v>
+        <v>3968</v>
       </c>
       <c r="J203">
-        <v>28737</v>
+        <v>29633</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B204">
         <v>4000</v>
@@ -6859,27 +6862,27 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F204" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I204">
-        <v>4094</v>
+        <v>3970</v>
       </c>
       <c r="J204">
-        <v>28738</v>
+        <v>70310</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B205">
         <v>4000</v>
@@ -6888,27 +6891,27 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E205">
         <v>0.8</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G205">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I205">
-        <v>4058</v>
+        <v>3970</v>
       </c>
       <c r="J205">
-        <v>28755</v>
+        <v>66394</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B206">
         <v>4000</v>
@@ -6917,27 +6920,27 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E206">
         <v>0.8</v>
       </c>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G206">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I206">
-        <v>4040</v>
+        <v>3972</v>
       </c>
       <c r="J206">
-        <v>28800</v>
+        <v>67678</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B207">
         <v>4000</v>
@@ -6946,22 +6949,22 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G207">
         <v>0.2</v>
       </c>
       <c r="I207">
-        <v>4024</v>
+        <v>3976</v>
       </c>
       <c r="J207">
-        <v>28781</v>
+        <v>59232</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6975,22 +6978,22 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G208">
         <v>0.4</v>
       </c>
       <c r="I208">
-        <v>4056</v>
+        <v>3978</v>
       </c>
       <c r="J208">
-        <v>28824</v>
+        <v>37347</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -7004,27 +7007,27 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G209">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I209">
-        <v>4102</v>
+        <v>3980</v>
       </c>
       <c r="J209">
-        <v>28736</v>
+        <v>29837</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B210">
         <v>4000</v>
@@ -7033,51 +7036,51 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G210">
         <v>0.4</v>
       </c>
       <c r="I210">
-        <v>4054</v>
+        <v>3980</v>
       </c>
       <c r="J210">
-        <v>28774</v>
+        <v>72814</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B211">
         <v>4000</v>
       </c>
       <c r="C211" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E211">
         <v>0.7</v>
       </c>
       <c r="F211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G211">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I211">
-        <v>3004</v>
+        <v>3980</v>
       </c>
       <c r="J211">
-        <v>25520</v>
+        <v>59335</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7088,54 +7091,54 @@
         <v>4000</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F212" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G212">
         <v>0.4</v>
       </c>
       <c r="I212">
-        <v>2954</v>
+        <v>3984</v>
       </c>
       <c r="J212">
-        <v>26440</v>
+        <v>37726</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B213">
         <v>4000</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E213">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G213">
         <v>0.2</v>
       </c>
       <c r="I213">
-        <v>2422</v>
+        <v>3990</v>
       </c>
       <c r="J213">
-        <v>25665</v>
+        <v>60026</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7146,54 +7149,54 @@
         <v>4000</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E214">
         <v>0.7</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G214">
         <v>0.4</v>
       </c>
       <c r="I214">
-        <v>2444</v>
+        <v>3994</v>
       </c>
       <c r="J214">
-        <v>25528</v>
+        <v>36248</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B215">
         <v>4000</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E215">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G215">
         <v>0.2</v>
       </c>
       <c r="I215">
-        <v>3634</v>
+        <v>3996</v>
       </c>
       <c r="J215">
-        <v>25912</v>
+        <v>59802</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7204,25 +7207,25 @@
         <v>4000</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G216">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I216">
-        <v>3582</v>
+        <v>3996</v>
       </c>
       <c r="J216">
-        <v>27024</v>
+        <v>37615</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7233,25 +7236,25 @@
         <v>4000</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E217">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G217">
         <v>0.2</v>
       </c>
       <c r="I217">
-        <v>3800</v>
+        <v>3998</v>
       </c>
       <c r="J217">
-        <v>25916</v>
+        <v>29862</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7262,25 +7265,25 @@
         <v>4000</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E218">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G218">
         <v>0.4</v>
       </c>
       <c r="I218">
-        <v>3726</v>
+        <v>3998</v>
       </c>
       <c r="J218">
-        <v>27405</v>
+        <v>29888</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7291,10 +7294,10 @@
         <v>4000</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>0.8</v>
@@ -7303,13 +7306,13 @@
         <v>9</v>
       </c>
       <c r="G219">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I219">
-        <v>2992</v>
+        <v>4002</v>
       </c>
       <c r="J219">
-        <v>25851</v>
+        <v>29819</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7320,83 +7323,83 @@
         <v>4000</v>
       </c>
       <c r="C220" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <v>0.8</v>
       </c>
       <c r="F220" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G220">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I220">
-        <v>3956</v>
+        <v>4012</v>
       </c>
       <c r="J220">
-        <v>28778</v>
+        <v>37603</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B221">
         <v>4000</v>
       </c>
       <c r="C221" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G221">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I221">
-        <v>2502</v>
+        <v>4016</v>
       </c>
       <c r="J221">
-        <v>25651</v>
+        <v>70910</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>4000</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E222">
         <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G222">
         <v>0.4</v>
       </c>
       <c r="I222">
-        <v>3064</v>
+        <v>4020</v>
       </c>
       <c r="J222">
-        <v>26747</v>
+        <v>65647</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7407,54 +7410,54 @@
         <v>4000</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E223">
         <v>0.8</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G223">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I223">
-        <v>3722</v>
+        <v>4022</v>
       </c>
       <c r="J223">
-        <v>25394</v>
+        <v>37945</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B224">
         <v>4000</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E224">
         <v>0.8</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G224">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I224">
-        <v>3966</v>
+        <v>4024</v>
       </c>
       <c r="J224">
-        <v>28901</v>
+        <v>60562</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7465,54 +7468,54 @@
         <v>4000</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G225">
         <v>0.2</v>
       </c>
       <c r="I225">
-        <v>3726</v>
+        <v>4028</v>
       </c>
       <c r="J225">
-        <v>26571</v>
+        <v>37692</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B226">
         <v>4000</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E226">
         <v>0.8</v>
       </c>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>3938</v>
+        <v>4030</v>
       </c>
       <c r="J226">
-        <v>30904</v>
+        <v>57913</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7523,25 +7526,25 @@
         <v>4000</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E227">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F227" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G227">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I227">
-        <v>4054</v>
+        <v>4030</v>
       </c>
       <c r="J227">
-        <v>58322</v>
+        <v>66582</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7555,22 +7558,22 @@
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E228">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F228" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G228">
         <v>0.4</v>
       </c>
       <c r="I228">
-        <v>3980</v>
+        <v>4034</v>
       </c>
       <c r="J228">
-        <v>72814</v>
+        <v>64174</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7584,27 +7587,27 @@
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E229">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G229">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I229">
-        <v>4084</v>
+        <v>4038</v>
       </c>
       <c r="J229">
-        <v>57535</v>
+        <v>57596</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B230">
         <v>4000</v>
@@ -7613,10 +7616,10 @@
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E230">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
@@ -7625,15 +7628,15 @@
         <v>0.4</v>
       </c>
       <c r="I230">
-        <v>4044</v>
+        <v>4040</v>
       </c>
       <c r="J230">
-        <v>57510</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B231">
         <v>4000</v>
@@ -7642,22 +7645,22 @@
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E231">
         <v>0.7</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G231">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I231">
-        <v>4038</v>
+        <v>4042</v>
       </c>
       <c r="J231">
-        <v>67774</v>
+        <v>37746</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7671,22 +7674,22 @@
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E232">
         <v>0.7</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G232">
         <v>0.4</v>
       </c>
       <c r="I232">
-        <v>4058</v>
+        <v>4044</v>
       </c>
       <c r="J232">
-        <v>60303</v>
+        <v>57510</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7700,22 +7703,22 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E233">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G233">
         <v>0.2</v>
       </c>
       <c r="I233">
-        <v>4076</v>
+        <v>4050</v>
       </c>
       <c r="J233">
-        <v>58800</v>
+        <v>57645</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7729,22 +7732,22 @@
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F234" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G234">
         <v>0.4</v>
       </c>
       <c r="I234">
-        <v>4002</v>
+        <v>4050</v>
       </c>
       <c r="J234">
-        <v>59002</v>
+        <v>58534</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7758,10 +7761,10 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E235">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F235" t="s">
         <v>9</v>
@@ -7770,15 +7773,15 @@
         <v>0.2</v>
       </c>
       <c r="I235">
-        <v>4062</v>
+        <v>4054</v>
       </c>
       <c r="J235">
-        <v>78824</v>
+        <v>58322</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B236">
         <v>4000</v>
@@ -7787,27 +7790,27 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E236">
         <v>0.8</v>
       </c>
       <c r="F236" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G236">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I236">
-        <v>4038</v>
+        <v>4054</v>
       </c>
       <c r="J236">
-        <v>57596</v>
+        <v>36012</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B237">
         <v>4000</v>
@@ -7816,7 +7819,7 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E237">
         <v>0.8</v>
@@ -7828,10 +7831,10 @@
         <v>0.2</v>
       </c>
       <c r="I237">
-        <v>4068</v>
+        <v>4058</v>
       </c>
       <c r="J237">
-        <v>57674</v>
+        <v>28755</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -7845,22 +7848,22 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E238">
         <v>0.8</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G238">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I238">
-        <v>4070</v>
+        <v>4062</v>
       </c>
       <c r="J238">
-        <v>57629</v>
+        <v>78824</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7874,22 +7877,22 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G239">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I239">
         <v>4062</v>
       </c>
       <c r="J239">
-        <v>57723</v>
+        <v>58612</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -7903,22 +7906,22 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E240">
         <v>0.8</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G240">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I240">
-        <v>4072</v>
+        <v>4068</v>
       </c>
       <c r="J240">
-        <v>57770</v>
+        <v>57674</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7932,27 +7935,27 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E241">
         <v>0.8</v>
       </c>
       <c r="F241" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G241">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I241">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="J241">
-        <v>57542</v>
+        <v>57629</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B242">
         <v>4000</v>
@@ -7961,22 +7964,22 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G242">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I242">
-        <v>4102</v>
+        <v>4076</v>
       </c>
       <c r="J242">
-        <v>57645</v>
+        <v>35891</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -7987,54 +7990,54 @@
         <v>4000</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E243">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F243" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G243">
         <v>0.2</v>
       </c>
       <c r="I243">
-        <v>2914</v>
+        <v>4076</v>
       </c>
       <c r="J243">
-        <v>51383</v>
+        <v>76424</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B244">
         <v>4000</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E244">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F244" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G244">
         <v>0.4</v>
       </c>
       <c r="I244">
-        <v>3710</v>
+        <v>4078</v>
       </c>
       <c r="J244">
-        <v>57314</v>
+        <v>36222</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8045,54 +8048,54 @@
         <v>4000</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E245">
         <v>0.7</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G245">
         <v>0.2</v>
       </c>
       <c r="I245">
-        <v>2420</v>
+        <v>4078</v>
       </c>
       <c r="J245">
-        <v>51568</v>
+        <v>67711</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B246">
         <v>4000</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E246">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F246" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G246">
         <v>0.4</v>
       </c>
       <c r="I246">
-        <v>2518</v>
+        <v>4080</v>
       </c>
       <c r="J246">
-        <v>51509</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -8103,25 +8106,25 @@
         <v>4000</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E247">
         <v>0.7</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G247">
         <v>0.2</v>
       </c>
       <c r="I247">
-        <v>3626</v>
+        <v>4080</v>
       </c>
       <c r="J247">
-        <v>52570</v>
+        <v>68008</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -8132,83 +8135,83 @@
         <v>4000</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E248">
         <v>0.7</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G248">
         <v>0.4</v>
       </c>
       <c r="I248">
-        <v>3680</v>
+        <v>4080</v>
       </c>
       <c r="J248">
-        <v>55943</v>
+        <v>68154</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B249">
         <v>4000</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G249">
         <v>0.2</v>
       </c>
       <c r="I249">
-        <v>3670</v>
+        <v>4082</v>
       </c>
       <c r="J249">
-        <v>53160</v>
+        <v>36147</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B250">
         <v>4000</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E250">
         <v>0.7</v>
       </c>
       <c r="F250" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G250">
         <v>0.4</v>
       </c>
       <c r="I250">
-        <v>3868</v>
+        <v>4084</v>
       </c>
       <c r="J250">
-        <v>54958</v>
+        <v>28694</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8219,25 +8222,25 @@
         <v>4000</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G251">
         <v>0.2</v>
       </c>
       <c r="I251">
-        <v>3104</v>
+        <v>4084</v>
       </c>
       <c r="J251">
-        <v>53278</v>
+        <v>57535</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8248,199 +8251,199 @@
         <v>4000</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E252">
         <v>0.8</v>
       </c>
       <c r="F252" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G252">
         <v>0.4</v>
       </c>
       <c r="I252">
-        <v>4030</v>
+        <v>4092</v>
       </c>
       <c r="J252">
-        <v>57913</v>
+        <v>57891</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B253">
         <v>4000</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E253">
         <v>0.8</v>
       </c>
       <c r="F253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G253">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I253">
-        <v>2502</v>
+        <v>4094</v>
       </c>
       <c r="J253">
-        <v>49818</v>
+        <v>28738</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B254">
         <v>4000</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E254">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F254" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G254">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I254">
-        <v>3502</v>
+        <v>4096</v>
       </c>
       <c r="J254">
-        <v>56211</v>
+        <v>36191</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B255">
         <v>4000</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E255">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G255">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I255">
-        <v>3652</v>
+        <v>4096</v>
       </c>
       <c r="J255">
-        <v>53971</v>
+        <v>35865</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B256">
         <v>4000</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E256">
         <v>0.8</v>
       </c>
       <c r="F256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G256">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I256">
-        <v>4032</v>
+        <v>4100</v>
       </c>
       <c r="J256">
-        <v>58081</v>
+        <v>28737</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B257">
         <v>4000</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E257">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G257">
         <v>0.2</v>
       </c>
       <c r="I257">
-        <v>3796</v>
+        <v>4104</v>
       </c>
       <c r="J257">
-        <v>51197</v>
+        <v>28712</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B258">
         <v>4000</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F258" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G258">
         <v>0.4</v>
       </c>
       <c r="I258">
-        <v>4024</v>
+        <v>4112</v>
       </c>
       <c r="J258">
-        <v>57927</v>
+        <v>28702</v>
       </c>
     </row>
   </sheetData>
